--- a/result_xlsx_files/teacher_time_table.xlsx
+++ b/result_xlsx_files/teacher_time_table.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI\DSS\teacher-timetable\result_xlsx_files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725485DE-A45D-4B16-980C-5E9C44A2C957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="1515" windowWidth="25800" windowHeight="12165" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="P'Noon72E" sheetId="1" r:id="rId1"/>
@@ -88,7 +82,7 @@
     <sheet name="P'Cee61B" sheetId="73" r:id="rId73"/>
     <sheet name="P'Earth63F" sheetId="74" r:id="rId74"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1260,12 +1254,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1312,23 +1306,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1370,7 +1356,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1402,27 +1388,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1454,24 +1422,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1647,17 +1597,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1707,7 +1657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1727,7 +1677,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1759,7 +1709,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1779,7 +1729,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1811,7 +1761,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1831,7 +1781,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1853,21 +1803,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1917,7 +1868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1949,7 +1900,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1977,7 +1928,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -2013,7 +1964,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -2045,7 +1996,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -2081,7 +2032,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -2103,21 +2054,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2167,7 +2119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -2191,7 +2143,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -2227,7 +2179,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -2263,7 +2215,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -2287,7 +2239,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -2323,7 +2275,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -2345,21 +2297,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2409,7 +2362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -2445,7 +2398,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -2489,7 +2442,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -2525,7 +2478,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -2553,7 +2506,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -2585,7 +2538,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -2607,21 +2560,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2671,7 +2625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -2703,7 +2657,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -2735,7 +2689,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -2771,7 +2725,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -2803,7 +2757,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -2835,7 +2789,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -2857,21 +2811,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2921,7 +2876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -2953,7 +2908,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -2989,7 +2944,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -3025,7 +2980,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -3049,7 +3004,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -3085,7 +3040,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -3107,21 +3062,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3171,7 +3127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -3207,7 +3163,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -3245,7 +3201,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -3277,7 +3233,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -3313,7 +3269,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -3345,7 +3301,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -3367,21 +3323,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3431,7 +3388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -3451,7 +3408,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -3483,7 +3440,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -3509,7 +3466,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -3535,7 +3492,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -3561,7 +3518,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -3583,21 +3540,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3647,7 +3605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -3667,7 +3625,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -3691,7 +3649,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -3711,7 +3669,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -3735,7 +3693,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -3755,7 +3713,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -3777,21 +3735,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3841,7 +3800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -3865,7 +3824,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -3885,7 +3844,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -3913,7 +3872,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -3933,7 +3892,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -3953,7 +3912,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -3975,21 +3934,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4039,7 +3999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -4063,7 +4023,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4087,7 +4047,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -4115,7 +4075,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -4135,7 +4095,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -4155,7 +4115,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -4177,21 +4137,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4241,7 +4202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -4273,7 +4234,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4309,7 +4270,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -4349,7 +4310,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -4377,7 +4338,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -4413,7 +4374,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -4435,21 +4396,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4499,7 +4461,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -4527,7 +4489,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4559,7 +4521,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -4591,7 +4553,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -4623,7 +4585,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -4659,7 +4621,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -4681,21 +4643,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4745,7 +4708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -4765,7 +4728,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4805,7 +4768,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -4841,7 +4804,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -4877,7 +4840,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -4909,7 +4872,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -4931,21 +4894,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4995,7 +4959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -5035,7 +4999,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -5071,7 +5035,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -5111,7 +5075,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -5143,7 +5107,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -5179,7 +5143,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -5201,21 +5165,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5265,7 +5230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -5301,7 +5266,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -5337,7 +5302,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -5369,7 +5334,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -5405,7 +5370,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -5441,7 +5406,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -5463,21 +5428,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5527,7 +5493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -5547,7 +5513,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -5575,7 +5541,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -5599,7 +5565,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -5627,7 +5593,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -5651,7 +5617,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -5673,21 +5639,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5737,7 +5704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -5769,7 +5736,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -5809,7 +5776,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -5841,7 +5808,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -5881,7 +5848,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -5917,7 +5884,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -5939,21 +5906,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6003,7 +5971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -6039,7 +6007,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -6079,7 +6047,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -6111,7 +6079,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -6139,7 +6107,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -6171,7 +6139,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -6193,21 +6161,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6257,7 +6226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -6285,7 +6254,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -6313,7 +6282,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -6337,7 +6306,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -6357,7 +6326,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -6385,7 +6354,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -6407,21 +6376,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6471,7 +6441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -6503,7 +6473,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -6533,7 +6503,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -6561,7 +6531,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -6593,7 +6563,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -6629,7 +6599,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -6651,21 +6621,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6715,7 +6686,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -6755,7 +6726,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -6795,7 +6766,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -6827,7 +6798,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -6855,7 +6826,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -6883,7 +6854,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -6905,21 +6876,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6969,7 +6941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -6989,7 +6961,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -7021,7 +6993,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -7041,7 +7013,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -7061,7 +7033,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -7093,7 +7065,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -7115,21 +7087,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7179,7 +7152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -7199,7 +7172,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -7219,7 +7192,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -7251,7 +7224,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -7283,7 +7256,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -7311,7 +7284,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -7333,21 +7306,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7397,7 +7371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -7433,7 +7407,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -7469,7 +7443,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -7497,7 +7471,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -7537,7 +7511,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -7573,7 +7547,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -7595,21 +7569,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7659,7 +7634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -7679,7 +7654,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -7699,7 +7674,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -7719,7 +7694,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -7743,7 +7718,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -7763,7 +7738,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -7785,21 +7760,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7849,7 +7825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -7873,7 +7849,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -7905,7 +7881,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -7933,7 +7909,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -7961,7 +7937,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -7985,7 +7961,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -8007,21 +7983,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8071,7 +8048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -8103,7 +8080,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -8131,7 +8108,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -8171,7 +8148,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -8203,7 +8180,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -8231,7 +8208,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -8253,21 +8230,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8317,7 +8295,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -8337,7 +8315,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -8357,7 +8335,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -8377,7 +8355,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -8401,7 +8379,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -8421,7 +8399,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -8443,21 +8421,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8507,7 +8486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -8527,7 +8506,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -8553,7 +8532,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -8573,7 +8552,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -8593,7 +8572,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -8613,7 +8592,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -8635,21 +8614,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8699,7 +8679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -8719,7 +8699,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -8739,7 +8719,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -8771,7 +8751,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -8803,7 +8783,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -8839,7 +8819,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -8861,21 +8841,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8925,7 +8906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -8945,7 +8926,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -8965,7 +8946,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -8997,7 +8978,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -9021,7 +9002,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -9041,7 +9022,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -9063,21 +9044,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9127,7 +9109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -9147,7 +9129,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -9167,7 +9149,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -9187,7 +9169,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -9207,7 +9189,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -9227,7 +9209,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -9249,21 +9231,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9313,7 +9296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -9333,7 +9316,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -9353,7 +9336,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -9377,7 +9360,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -9397,7 +9380,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -9421,7 +9404,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -9443,21 +9426,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9507,7 +9491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -9527,7 +9511,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -9547,7 +9531,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -9567,7 +9551,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -9587,7 +9571,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -9607,7 +9591,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -9629,21 +9613,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9693,7 +9678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -9729,7 +9714,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -9765,7 +9750,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -9793,7 +9778,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -9825,7 +9810,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -9861,7 +9846,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -9883,21 +9868,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9947,7 +9933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -9987,7 +9973,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -10007,7 +9993,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -10031,7 +10017,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -10071,7 +10057,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -10103,7 +10089,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -10125,21 +10111,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10189,7 +10176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -10217,7 +10204,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -10249,7 +10236,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -10281,7 +10268,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -10309,7 +10296,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -10337,7 +10324,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -10359,21 +10346,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10423,7 +10411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -10447,7 +10435,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -10475,7 +10463,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -10499,7 +10487,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -10523,7 +10511,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -10547,7 +10535,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -10569,21 +10557,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10633,7 +10622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -10661,7 +10650,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -10693,7 +10682,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -10717,7 +10706,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -10753,7 +10742,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -10777,7 +10766,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -10799,21 +10788,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10863,7 +10853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -10887,7 +10877,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -10907,7 +10897,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -10927,7 +10917,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -10947,7 +10937,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -10967,7 +10957,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -10989,21 +10979,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11053,7 +11044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -11073,7 +11064,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -11093,7 +11084,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -11113,7 +11104,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -11133,7 +11124,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -11153,7 +11144,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -11175,21 +11166,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11239,7 +11231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -11271,7 +11263,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -11307,7 +11299,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -11343,7 +11335,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -11379,7 +11371,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -11415,7 +11407,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -11437,21 +11429,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11501,7 +11494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -11525,7 +11518,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -11553,7 +11546,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -11577,7 +11570,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -11601,7 +11594,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -11625,7 +11618,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -11647,21 +11640,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11711,7 +11705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -11747,7 +11741,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -11787,7 +11781,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -11823,7 +11817,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -11855,7 +11849,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -11891,7 +11885,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -11913,21 +11907,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11977,7 +11972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -11997,7 +11992,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -12017,7 +12012,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -12041,7 +12036,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -12061,7 +12056,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -12081,7 +12076,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -12103,21 +12098,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12167,7 +12163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -12187,7 +12183,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -12207,7 +12203,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -12231,7 +12227,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -12251,7 +12247,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -12271,7 +12267,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -12293,21 +12289,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12357,7 +12354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -12385,7 +12382,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -12405,7 +12402,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -12425,7 +12422,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -12453,7 +12450,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -12473,7 +12470,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -12495,21 +12492,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12559,7 +12557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -12583,7 +12581,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -12603,7 +12601,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -12635,7 +12633,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -12655,7 +12653,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -12675,7 +12673,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -12697,21 +12695,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12761,7 +12760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -12781,7 +12780,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -12807,7 +12806,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -12833,7 +12832,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -12859,7 +12858,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -12885,7 +12884,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -12907,21 +12906,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12971,7 +12971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -12991,7 +12991,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -13017,7 +13017,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -13043,7 +13043,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -13063,7 +13063,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -13083,7 +13083,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -13105,21 +13105,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13169,7 +13170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -13193,7 +13194,7 @@
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -13213,7 +13214,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -13233,7 +13234,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -13257,7 +13258,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -13277,7 +13278,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -13299,21 +13300,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13363,7 +13365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -13387,7 +13389,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -13411,7 +13413,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -13435,7 +13437,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -13455,7 +13457,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -13479,7 +13481,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -13501,21 +13503,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13565,7 +13568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -13589,7 +13592,7 @@
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -13609,7 +13612,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -13629,7 +13632,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -13653,7 +13656,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -13673,7 +13676,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -13695,21 +13698,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13759,7 +13763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -13779,7 +13783,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -13807,7 +13811,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -13827,7 +13831,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -13847,7 +13851,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -13867,7 +13871,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -13889,21 +13893,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13953,7 +13958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -13985,7 +13990,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -14013,7 +14018,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -14041,7 +14046,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -14081,7 +14086,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -14121,7 +14126,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -14143,21 +14148,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14207,7 +14213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -14239,7 +14245,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -14271,7 +14277,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -14297,7 +14303,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -14323,7 +14329,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -14349,7 +14355,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -14371,21 +14377,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14435,7 +14442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -14463,7 +14470,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -14487,7 +14494,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -14507,7 +14514,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -14531,7 +14538,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -14559,7 +14566,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -14581,21 +14588,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14645,7 +14653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -14665,7 +14673,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -14685,7 +14693,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -14705,7 +14713,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -14733,7 +14741,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -14753,7 +14761,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -14775,21 +14783,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14839,7 +14848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -14859,7 +14868,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -14879,7 +14888,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -14903,7 +14912,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -14923,7 +14932,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -14943,7 +14952,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -14965,21 +14974,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15029,7 +15039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -15053,7 +15063,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -15077,7 +15087,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -15101,7 +15111,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -15125,7 +15135,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -15145,7 +15155,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -15167,21 +15177,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15231,7 +15242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -15251,7 +15262,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -15271,7 +15282,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -15291,7 +15302,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -15311,7 +15322,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -15339,7 +15350,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -15361,21 +15372,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15425,7 +15437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -15449,7 +15461,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -15469,7 +15481,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -15493,7 +15505,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -15513,7 +15525,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -15537,7 +15549,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -15559,21 +15571,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15623,7 +15636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -15643,7 +15656,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -15663,7 +15676,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -15683,7 +15696,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -15703,7 +15716,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -15723,7 +15736,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -15745,21 +15758,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15809,7 +15823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -15829,7 +15843,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -15849,7 +15863,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -15869,7 +15883,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -15889,7 +15903,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -15909,7 +15923,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -15931,21 +15945,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15995,7 +16010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -16015,7 +16030,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -16035,7 +16050,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -16055,7 +16070,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -16075,7 +16090,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -16095,7 +16110,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -16117,21 +16132,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16181,7 +16197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -16213,7 +16229,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -16245,7 +16261,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -16285,7 +16301,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -16317,7 +16333,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -16361,7 +16377,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -16383,21 +16399,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16447,7 +16464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -16467,7 +16484,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -16487,7 +16504,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -16507,7 +16524,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -16527,7 +16544,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -16547,7 +16564,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -16569,21 +16586,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16633,7 +16651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -16653,7 +16671,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -16673,7 +16691,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -16693,7 +16711,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -16713,7 +16731,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -16733,7 +16751,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -16755,21 +16773,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16819,7 +16838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -16839,7 +16858,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -16859,7 +16878,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -16879,7 +16898,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -16899,7 +16918,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -16919,7 +16938,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -16941,21 +16960,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17005,7 +17025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -17037,7 +17057,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -17077,7 +17097,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -17109,7 +17129,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -17137,7 +17157,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -17169,7 +17189,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -17191,21 +17211,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17255,7 +17276,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -17275,7 +17296,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -17299,7 +17320,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -17319,7 +17340,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -17339,7 +17360,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -17359,7 +17380,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -17381,21 +17402,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17445,7 +17467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -17477,7 +17499,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -17503,7 +17525,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -17529,7 +17551,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -17555,7 +17577,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -17581,7 +17603,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -17603,21 +17625,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="13.25" customWidth="1"/>
+    <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17667,7 +17690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -17691,7 +17714,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -17715,7 +17738,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -17739,7 +17762,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -17759,7 +17782,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -17783,7 +17806,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -17805,6 +17828,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
--- a/result_xlsx_files/teacher_time_table.xlsx
+++ b/result_xlsx_files/teacher_time_table.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\teacher-timetable\result_xlsx_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D84BA49-EB92-4A9A-B7D9-71CF0D42CED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P'Noon72E" sheetId="1" r:id="rId1"/>
@@ -82,7 +88,7 @@
     <sheet name="P'Cee61B" sheetId="73" r:id="rId73"/>
     <sheet name="P'Earth63F" sheetId="74" r:id="rId74"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -92,49 +98,49 @@
     <t>Date</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>9.00-9.30</t>
+  </si>
+  <si>
+    <t>9.30-10.00</t>
+  </si>
+  <si>
+    <t>10.00-10.30</t>
+  </si>
+  <si>
+    <t>10.30-11.00</t>
+  </si>
+  <si>
+    <t>11.00-11.30</t>
+  </si>
+  <si>
+    <t>11.30-12.00</t>
+  </si>
+  <si>
+    <t>13.00-13.30</t>
+  </si>
+  <si>
+    <t>13.30-14.00</t>
+  </si>
+  <si>
+    <t>14.00-14.30</t>
+  </si>
+  <si>
+    <t>14.30-15.00</t>
+  </si>
+  <si>
+    <t>15.00-15.30</t>
+  </si>
+  <si>
+    <t>15.30-16.00</t>
+  </si>
+  <si>
+    <t>16.00-16.30</t>
+  </si>
+  <si>
+    <t>16.30-17.00</t>
+  </si>
+  <si>
+    <t>17.00-17.30</t>
   </si>
   <si>
     <t>Monday</t>
@@ -1254,8 +1260,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1310,6 +1316,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1356,7 +1370,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1388,9 +1402,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1422,6 +1454,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1597,17 +1647,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1657,7 +1707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1677,7 +1727,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1709,7 +1759,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1729,7 +1779,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1761,7 +1811,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1781,7 +1831,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1808,17 +1858,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1868,7 +1918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1900,7 +1950,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1928,7 +1978,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1964,7 +2014,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1996,7 +2046,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -2032,7 +2082,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -2059,17 +2109,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2119,7 +2171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -2143,7 +2195,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -2179,7 +2231,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -2215,7 +2267,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -2239,7 +2291,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -2275,7 +2327,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -2302,17 +2354,17 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2362,7 +2414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -2398,7 +2450,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -2442,7 +2494,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -2478,7 +2530,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -2506,7 +2558,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -2538,7 +2590,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -2565,17 +2617,17 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2625,7 +2677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -2657,7 +2709,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -2689,7 +2741,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -2725,7 +2777,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -2757,7 +2809,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -2789,7 +2841,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -2816,17 +2868,17 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2876,7 +2928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -2908,7 +2960,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -2944,7 +2996,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -2980,7 +3032,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -3004,7 +3056,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -3040,7 +3092,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -3067,17 +3119,17 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3127,7 +3179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -3163,7 +3215,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -3201,7 +3253,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -3233,7 +3285,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -3269,7 +3321,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -3301,7 +3353,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -3328,17 +3380,17 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3388,7 +3440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -3408,7 +3460,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -3440,7 +3492,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -3466,7 +3518,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -3492,7 +3544,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -3518,7 +3570,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -3545,17 +3597,17 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3605,7 +3657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -3625,7 +3677,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -3649,7 +3701,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -3669,7 +3721,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -3693,7 +3745,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -3713,7 +3765,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -3740,17 +3792,17 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3800,7 +3852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -3824,7 +3876,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -3844,7 +3896,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -3872,7 +3924,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -3892,7 +3944,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -3912,7 +3964,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -3939,17 +3991,17 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3999,7 +4051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -4023,7 +4075,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4047,7 +4099,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -4075,7 +4127,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -4095,7 +4147,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -4115,7 +4167,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -4142,17 +4194,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4202,7 +4254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -4234,7 +4286,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4270,7 +4322,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -4310,7 +4362,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -4338,7 +4390,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -4374,7 +4426,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -4401,17 +4453,17 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4461,7 +4513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -4489,7 +4541,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4521,7 +4573,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -4553,7 +4605,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -4585,7 +4637,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -4621,7 +4673,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -4648,17 +4700,17 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4708,7 +4760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -4728,7 +4780,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4768,7 +4820,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -4804,7 +4856,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -4840,7 +4892,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -4872,7 +4924,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -4899,17 +4951,17 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4959,7 +5011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -4999,7 +5051,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -5035,7 +5087,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -5075,7 +5127,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -5107,7 +5159,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -5143,7 +5195,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -5170,17 +5222,17 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5230,7 +5282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -5266,7 +5318,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -5302,7 +5354,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -5334,7 +5386,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -5370,7 +5422,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -5406,7 +5458,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -5433,17 +5485,17 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5493,7 +5545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -5513,7 +5565,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -5541,7 +5593,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -5565,7 +5617,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -5593,7 +5645,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -5617,7 +5669,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -5644,17 +5696,17 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5704,7 +5756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -5736,7 +5788,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -5776,7 +5828,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -5808,7 +5860,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -5848,7 +5900,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -5884,7 +5936,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -5911,17 +5963,17 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5971,7 +6023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -6007,7 +6059,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -6047,7 +6099,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -6079,7 +6131,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -6107,7 +6159,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -6139,7 +6191,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -6166,17 +6218,17 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6226,7 +6278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -6254,7 +6306,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -6282,7 +6334,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -6306,7 +6358,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -6326,7 +6378,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -6354,7 +6406,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -6381,17 +6433,17 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6441,7 +6493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -6473,7 +6525,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -6503,7 +6555,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -6531,7 +6583,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -6563,7 +6615,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -6599,7 +6651,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -6626,17 +6678,17 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6686,7 +6738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -6726,7 +6778,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -6766,7 +6818,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -6798,7 +6850,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -6826,7 +6878,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -6854,7 +6906,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -6881,17 +6933,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6941,7 +6993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -6961,7 +7013,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -6993,7 +7045,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -7013,7 +7065,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -7033,7 +7085,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -7065,7 +7117,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -7092,17 +7144,17 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7152,7 +7204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -7172,7 +7224,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -7192,7 +7244,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -7224,7 +7276,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -7256,7 +7308,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -7284,7 +7336,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -7311,17 +7363,17 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7371,7 +7423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -7407,7 +7459,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -7443,7 +7495,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -7471,7 +7523,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -7511,7 +7563,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -7547,7 +7599,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -7574,17 +7626,17 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7634,7 +7686,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -7654,7 +7706,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -7674,7 +7726,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -7694,7 +7746,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -7718,7 +7770,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -7738,7 +7790,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -7765,17 +7817,17 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7825,7 +7877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -7849,7 +7901,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -7881,7 +7933,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -7909,7 +7961,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -7937,7 +7989,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -7961,7 +8013,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -7988,17 +8040,17 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8048,7 +8100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -8080,7 +8132,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -8108,7 +8160,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -8148,7 +8200,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -8180,7 +8232,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -8208,7 +8260,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -8235,17 +8287,17 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8295,7 +8347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -8315,7 +8367,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -8335,7 +8387,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -8355,7 +8407,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -8379,7 +8431,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -8399,7 +8451,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -8426,17 +8478,17 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8486,7 +8538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -8506,7 +8558,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -8532,7 +8584,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -8552,7 +8604,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -8572,7 +8624,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -8592,7 +8644,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -8619,17 +8671,17 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8679,7 +8731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -8699,7 +8751,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -8719,7 +8771,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -8751,7 +8803,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -8783,7 +8835,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -8819,7 +8871,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -8846,17 +8898,17 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8906,7 +8958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -8926,7 +8978,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -8946,7 +8998,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -8978,7 +9030,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -9002,7 +9054,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -9022,7 +9074,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -9049,17 +9101,17 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9109,7 +9161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -9129,7 +9181,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -9149,7 +9201,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -9169,7 +9221,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -9189,7 +9241,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -9209,7 +9261,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -9236,17 +9288,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9296,7 +9348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -9316,7 +9368,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -9336,7 +9388,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -9360,7 +9412,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -9380,7 +9432,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -9404,7 +9456,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -9431,17 +9483,17 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9491,7 +9543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -9511,7 +9563,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -9531,7 +9583,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -9551,7 +9603,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -9571,7 +9623,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -9591,7 +9643,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -9618,17 +9670,17 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9678,7 +9730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -9714,7 +9766,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -9750,7 +9802,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -9778,7 +9830,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -9810,7 +9862,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -9846,7 +9898,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -9873,17 +9925,17 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9933,7 +9985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -9973,7 +10025,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -9993,7 +10045,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -10017,7 +10069,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -10057,7 +10109,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -10089,7 +10141,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -10116,17 +10168,17 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10176,7 +10228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -10204,7 +10256,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -10236,7 +10288,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -10268,7 +10320,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -10296,7 +10348,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -10324,7 +10376,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -10351,17 +10403,17 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10411,7 +10463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -10435,7 +10487,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -10463,7 +10515,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -10487,7 +10539,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -10511,7 +10563,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -10535,7 +10587,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -10562,17 +10614,17 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10622,7 +10674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -10650,7 +10702,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -10682,7 +10734,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -10706,7 +10758,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -10742,7 +10794,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -10766,7 +10818,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -10793,17 +10845,17 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10853,7 +10905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -10877,7 +10929,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -10897,7 +10949,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -10917,7 +10969,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -10937,7 +10989,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -10957,7 +11009,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -10984,17 +11036,17 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11044,7 +11096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -11064,7 +11116,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -11084,7 +11136,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -11104,7 +11156,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -11124,7 +11176,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -11144,7 +11196,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -11171,17 +11223,17 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11231,7 +11283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -11263,7 +11315,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -11299,7 +11351,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -11335,7 +11387,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -11371,7 +11423,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -11407,7 +11459,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -11434,17 +11486,17 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11494,7 +11546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -11518,7 +11570,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -11546,7 +11598,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -11570,7 +11622,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -11594,7 +11646,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -11618,7 +11670,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -11645,17 +11697,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11705,7 +11757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -11741,7 +11793,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -11781,7 +11833,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -11817,7 +11869,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -11849,7 +11901,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -11885,7 +11937,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -11912,17 +11964,17 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11972,7 +12024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -11992,7 +12044,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -12012,7 +12064,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -12036,7 +12088,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -12056,7 +12108,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -12076,7 +12128,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -12103,17 +12155,17 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12163,7 +12215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -12183,7 +12235,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -12203,7 +12255,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -12227,7 +12279,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -12247,7 +12299,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -12267,7 +12319,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -12294,17 +12346,17 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12354,7 +12406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -12382,7 +12434,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -12402,7 +12454,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -12422,7 +12474,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -12450,7 +12502,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -12470,7 +12522,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -12497,17 +12549,17 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12557,7 +12609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -12581,7 +12633,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -12601,7 +12653,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -12633,7 +12685,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -12653,7 +12705,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -12673,7 +12725,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -12700,17 +12752,17 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12760,7 +12812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -12780,7 +12832,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -12806,7 +12858,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -12832,7 +12884,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -12858,7 +12910,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -12884,7 +12936,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -12911,17 +12963,17 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12971,7 +13023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -12991,7 +13043,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -13017,7 +13069,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -13043,7 +13095,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -13063,7 +13115,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -13083,7 +13135,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -13110,17 +13162,17 @@
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13170,7 +13222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -13194,7 +13246,7 @@
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -13214,7 +13266,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -13234,7 +13286,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -13258,7 +13310,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -13278,7 +13330,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -13305,17 +13357,17 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13365,7 +13417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -13389,7 +13441,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -13413,7 +13465,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -13437,7 +13489,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -13457,7 +13509,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -13481,7 +13533,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -13508,17 +13560,17 @@
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13568,7 +13620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -13592,7 +13644,7 @@
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -13612,7 +13664,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -13632,7 +13684,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -13656,7 +13708,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -13676,7 +13728,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -13703,17 +13755,17 @@
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13763,7 +13815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -13783,7 +13835,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -13811,7 +13863,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -13831,7 +13883,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -13851,7 +13903,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -13871,7 +13923,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -13898,17 +13950,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13958,7 +14010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -13990,7 +14042,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -14018,7 +14070,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -14046,7 +14098,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -14086,7 +14138,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -14126,7 +14178,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -14153,17 +14205,17 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14213,7 +14265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -14245,7 +14297,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -14277,7 +14329,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -14303,7 +14355,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -14329,7 +14381,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -14355,7 +14407,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -14382,17 +14434,17 @@
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14442,7 +14494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -14470,7 +14522,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -14494,7 +14546,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -14514,7 +14566,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -14538,7 +14590,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -14566,7 +14618,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -14593,17 +14645,17 @@
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14653,7 +14705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -14673,7 +14725,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -14693,7 +14745,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -14713,7 +14765,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -14741,7 +14793,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -14761,7 +14813,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -14788,17 +14840,17 @@
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14848,7 +14900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -14868,7 +14920,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -14888,7 +14940,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -14912,7 +14964,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -14932,7 +14984,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -14952,7 +15004,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -14979,17 +15031,17 @@
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15039,7 +15091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -15063,7 +15115,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -15087,7 +15139,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -15111,7 +15163,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -15135,7 +15187,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -15155,7 +15207,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -15182,17 +15234,17 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15242,7 +15294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -15262,7 +15314,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -15282,7 +15334,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -15302,7 +15354,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -15322,7 +15374,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -15350,7 +15402,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -15377,17 +15429,17 @@
 </file>
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15437,7 +15489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -15461,7 +15513,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -15481,7 +15533,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -15505,7 +15557,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -15525,7 +15577,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -15549,7 +15601,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -15576,17 +15628,17 @@
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15636,7 +15688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -15656,7 +15708,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -15676,7 +15728,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -15696,7 +15748,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -15716,7 +15768,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -15736,7 +15788,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -15763,17 +15815,17 @@
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15823,7 +15875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -15843,7 +15895,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -15863,7 +15915,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -15883,7 +15935,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -15903,7 +15955,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -15923,7 +15975,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -15950,17 +16002,17 @@
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16010,7 +16062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -16030,7 +16082,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -16050,7 +16102,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -16070,7 +16122,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -16090,7 +16142,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -16110,7 +16162,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -16137,17 +16189,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16197,7 +16249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -16229,7 +16281,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -16261,7 +16313,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -16301,7 +16353,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -16333,7 +16385,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -16377,7 +16429,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -16404,17 +16456,17 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16464,7 +16516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -16484,7 +16536,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -16504,7 +16556,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -16524,7 +16576,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -16544,7 +16596,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -16564,7 +16616,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -16591,17 +16643,17 @@
 </file>
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4600-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16651,7 +16703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -16671,7 +16723,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -16691,7 +16743,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -16711,7 +16763,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -16731,7 +16783,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -16751,7 +16803,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -16778,17 +16830,17 @@
 </file>
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4700-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16838,7 +16890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -16858,7 +16910,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -16878,7 +16930,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -16898,7 +16950,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -16918,7 +16970,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -16938,7 +16990,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -16965,17 +17017,17 @@
 </file>
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4800-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17025,7 +17077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -17057,7 +17109,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -17097,7 +17149,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -17129,7 +17181,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -17157,7 +17209,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -17189,7 +17241,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -17216,17 +17268,17 @@
 </file>
 
 <file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4900-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17276,7 +17328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -17296,7 +17348,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -17320,7 +17372,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -17340,7 +17392,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -17360,7 +17412,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -17380,7 +17432,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -17407,17 +17459,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17467,7 +17521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -17499,7 +17553,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -17525,7 +17579,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -17551,7 +17605,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -17577,7 +17631,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -17603,7 +17657,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -17630,17 +17684,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="14.7109375" customWidth="1"/>
+    <col min="1" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="105" customHeight="1">
+    <row r="1" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17690,7 +17744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="105" customHeight="1">
+    <row r="2" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -17714,7 +17768,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="105" customHeight="1">
+    <row r="3" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -17738,7 +17792,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="105" customHeight="1">
+    <row r="4" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -17762,7 +17816,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="105" customHeight="1">
+    <row r="5" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -17782,7 +17836,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="105" customHeight="1">
+    <row r="6" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -17806,7 +17860,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>

--- a/result_xlsx_files/teacher_time_table.xlsx
+++ b/result_xlsx_files/teacher_time_table.xlsx
@@ -10,13 +10,42 @@
     <sheet name="Room 1 FL 11" sheetId="1" r:id="rId1"/>
     <sheet name="Room 2 FL 11" sheetId="2" r:id="rId2"/>
     <sheet name="Room 3-4 FL 11" sheetId="3" r:id="rId3"/>
+    <sheet name="Room 5 FL 11" sheetId="4" r:id="rId4"/>
+    <sheet name="Room 6 FL 11" sheetId="5" r:id="rId5"/>
+    <sheet name="Room 7 FL 11" sheetId="6" r:id="rId6"/>
+    <sheet name="Room 8 FL 11" sheetId="7" r:id="rId7"/>
+    <sheet name="Room 9 FL 11" sheetId="8" r:id="rId8"/>
+    <sheet name="Room 10 FL 11" sheetId="9" r:id="rId9"/>
+    <sheet name="Room 1 FL 9A" sheetId="10" r:id="rId10"/>
+    <sheet name="Room 2 FL 9A" sheetId="11" r:id="rId11"/>
+    <sheet name="Room 3 FL 9A" sheetId="12" r:id="rId12"/>
+    <sheet name="Room 4 FL 9A" sheetId="13" r:id="rId13"/>
+    <sheet name="Room 5 FL 9A" sheetId="14" r:id="rId14"/>
+    <sheet name="Room 6 FL 9A" sheetId="15" r:id="rId15"/>
+    <sheet name="Room 7 FL 9A" sheetId="16" r:id="rId16"/>
+    <sheet name="Room 8-9 FL 9A" sheetId="17" r:id="rId17"/>
+    <sheet name="Room 10 FL 9A" sheetId="18" r:id="rId18"/>
+    <sheet name="Room 1 FL 9" sheetId="19" r:id="rId19"/>
+    <sheet name="Room 2 FL 9" sheetId="20" r:id="rId20"/>
+    <sheet name="Room 3 FL 9" sheetId="21" r:id="rId21"/>
+    <sheet name="Room 4 FL 9" sheetId="22" r:id="rId22"/>
+    <sheet name="Room 5 FL 9" sheetId="23" r:id="rId23"/>
+    <sheet name="Room 6 FL 9" sheetId="24" r:id="rId24"/>
+    <sheet name="Room 7 FL 9" sheetId="25" r:id="rId25"/>
+    <sheet name="Room 8-9 FL 9" sheetId="26" r:id="rId26"/>
+    <sheet name="Room 10 FL 9" sheetId="27" r:id="rId27"/>
+    <sheet name="Room 11 FL 9" sheetId="28" r:id="rId28"/>
+    <sheet name="Room 12 FL 9" sheetId="29" r:id="rId29"/>
+    <sheet name="Badminton Court" sheetId="30" r:id="rId30"/>
+    <sheet name="Basketball Court" sheetId="31" r:id="rId31"/>
+    <sheet name="Multipurpose 2 FL 9A" sheetId="32" r:id="rId32"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="170">
   <si>
     <t>9.00-9.30</t>
   </si>
@@ -119,9 +148,6 @@
 P'Its</t>
   </si>
   <si>
-    <t>Break</t>
-  </si>
-  <si>
     <t>8A Taekwando
 Taekwondo Master</t>
   </si>
@@ -152,6 +178,503 @@
   <si>
     <t>12 Taekwando
 Taekwondo Master</t>
+  </si>
+  <si>
+    <t>8A Character Development</t>
+  </si>
+  <si>
+    <t>8A Mathematics
+P'Paoju</t>
+  </si>
+  <si>
+    <t>8,9,10 Fundamental English (Selected Students)
+P'France</t>
+  </si>
+  <si>
+    <t>8A Chinese
+P'Noon</t>
+  </si>
+  <si>
+    <t>8A English
+Ms.Leelee</t>
+  </si>
+  <si>
+    <t>8A Thai
+P'Prae</t>
+  </si>
+  <si>
+    <t>8A ICT
+P'Ith</t>
+  </si>
+  <si>
+    <t>8A Science
+P'Amy</t>
+  </si>
+  <si>
+    <t>8A Reading Great Literature
+Ms.Leelee</t>
+  </si>
+  <si>
+    <t>9C Character Development</t>
+  </si>
+  <si>
+    <t>9C English
+Mr.Jacob</t>
+  </si>
+  <si>
+    <t>9C Mathematics
+P'Paoju</t>
+  </si>
+  <si>
+    <t>9C Science
+P'Oho</t>
+  </si>
+  <si>
+    <t>9C Reading Great Literature
+P'Yuri</t>
+  </si>
+  <si>
+    <t>9C GO
+Go Master</t>
+  </si>
+  <si>
+    <t>9C Thai
+P'Jaja</t>
+  </si>
+  <si>
+    <t>9B Character Development</t>
+  </si>
+  <si>
+    <t>9B Mathematics
+P'Sun</t>
+  </si>
+  <si>
+    <t>9B Reading Great Literature
+P'Yuri</t>
+  </si>
+  <si>
+    <t>9B GO
+Go Master</t>
+  </si>
+  <si>
+    <t>9B English
+Mr.Jacob</t>
+  </si>
+  <si>
+    <t>9B Science
+P'Amy</t>
+  </si>
+  <si>
+    <t>9B Thai
+P'Got</t>
+  </si>
+  <si>
+    <t>9A Character Development</t>
+  </si>
+  <si>
+    <t>9A English
+Mr.Josh</t>
+  </si>
+  <si>
+    <t>9A Mathematics
+P'Aom</t>
+  </si>
+  <si>
+    <t>9A Thai
+P'Got</t>
+  </si>
+  <si>
+    <t>9A Reading Great Literature
+P'Umim</t>
+  </si>
+  <si>
+    <t>9 Chinese Beginner 2
+P'Noon</t>
+  </si>
+  <si>
+    <t>9A Science
+P'Boom</t>
+  </si>
+  <si>
+    <t>9A GO
+Go Master</t>
+  </si>
+  <si>
+    <t>9D Character Development</t>
+  </si>
+  <si>
+    <t>9D Thai
+P'Jaja</t>
+  </si>
+  <si>
+    <t>9D Science
+P'Amy</t>
+  </si>
+  <si>
+    <t>9D Mathematics
+P'Cee</t>
+  </si>
+  <si>
+    <t>9 Chinese Intermediate
+P'Chai</t>
+  </si>
+  <si>
+    <t>9D GO
+Go Master</t>
+  </si>
+  <si>
+    <t>9D Reading Great Literature
+P'Umim</t>
+  </si>
+  <si>
+    <t>8B Character Development</t>
+  </si>
+  <si>
+    <t>8B Mathematics
+P'Aom</t>
+  </si>
+  <si>
+    <t>8B Reading Great Literature
+P'Yuri</t>
+  </si>
+  <si>
+    <t>8B Chinese
+P'Noon</t>
+  </si>
+  <si>
+    <t>8B English
+Mr.Aaron</t>
+  </si>
+  <si>
+    <t>8B Science
+P'Amy</t>
+  </si>
+  <si>
+    <t>8B ICT
+P'Ith</t>
+  </si>
+  <si>
+    <t>12NBS-A Character Development</t>
+  </si>
+  <si>
+    <t>12NBS-A Business Data and Numerical Skills
+P'Mint</t>
+  </si>
+  <si>
+    <t>12NBS-A Managing a Successful Business Project
+Mr.James</t>
+  </si>
+  <si>
+    <t>12NBS-A Managing a Successful Business Project - Practicum
+Mr.James</t>
+  </si>
+  <si>
+    <t>12NBS-A Business Data and Numerical Skills - Practicum
+P'Mint</t>
+  </si>
+  <si>
+    <t>12NBS-A IELTS
+Mr.Marc</t>
+  </si>
+  <si>
+    <t>12NBS SAT Eng
+P'Umim</t>
+  </si>
+  <si>
+    <t>12NBS Semester 1 Units</t>
+  </si>
+  <si>
+    <t>12NBS-A Business Project - Self work
+Mr.James</t>
+  </si>
+  <si>
+    <t>12NBS-A Work Experience</t>
+  </si>
+  <si>
+    <t>12NBS-B Character Development</t>
+  </si>
+  <si>
+    <t>12NBS-B Work Experience</t>
+  </si>
+  <si>
+    <t>12NBS-B IELTS
+Mr.Marc</t>
+  </si>
+  <si>
+    <t>12NBS-B Business Data and Numerical Skills - Practicum
+P'Mint</t>
+  </si>
+  <si>
+    <t>12NBS-B Managing a Successful Business Project
+P'Chua</t>
+  </si>
+  <si>
+    <t>12NBS-B Managing a Successful Business Project - Practicum
+P'Chua</t>
+  </si>
+  <si>
+    <t>12NBS-B Business Project - Self work
+P'Chua</t>
+  </si>
+  <si>
+    <t>13NBS Character Development</t>
+  </si>
+  <si>
+    <t>13NBS Financial Management
+Ms.Shruti</t>
+  </si>
+  <si>
+    <t>13 Business Strategy
+P'Mint</t>
+  </si>
+  <si>
+    <t>13NBS Financial Management - Practicum
+Ms.Shruti</t>
+  </si>
+  <si>
+    <t>13NBS Managing a Successful Business Project - Practicum
+Mr.James</t>
+  </si>
+  <si>
+    <t>13NBS Organisational Behaviour</t>
+  </si>
+  <si>
+    <t>13NBS IELTS
+Mr.Marc</t>
+  </si>
+  <si>
+    <t>13NBS Managing a Successful Business Project
+Mr.James</t>
+  </si>
+  <si>
+    <t>12,13 Business Strategy</t>
+  </si>
+  <si>
+    <t>12NBS-A,13NBS Product and Service Development
+P'Ak</t>
+  </si>
+  <si>
+    <t>13NBS Human Resource Management
+Mr.Satyajit</t>
+  </si>
+  <si>
+    <t>13 Portfolio and Research</t>
+  </si>
+  <si>
+    <t>11BCD English as a second language
+P'Jay</t>
+  </si>
+  <si>
+    <t>10A Character Development</t>
+  </si>
+  <si>
+    <t>10A English A
+Mr.Brian</t>
+  </si>
+  <si>
+    <t>10A Chemistry
+P'Boom</t>
+  </si>
+  <si>
+    <t>10A Mathematics
+P'Korn</t>
+  </si>
+  <si>
+    <t>11 Academic Clinic</t>
+  </si>
+  <si>
+    <t>10 Academic Clinic</t>
+  </si>
+  <si>
+    <t>10B Character Development</t>
+  </si>
+  <si>
+    <t>10B Biology
+P'Namfon</t>
+  </si>
+  <si>
+    <t>10BC English A
+Mr.Aaron</t>
+  </si>
+  <si>
+    <t>11 Mock IGCSE</t>
+  </si>
+  <si>
+    <t>10C Character Development</t>
+  </si>
+  <si>
+    <t>10C Biology
+P'Namfon</t>
+  </si>
+  <si>
+    <t>10C Chemistry
+P'Mink</t>
+  </si>
+  <si>
+    <t>10C Mathematics
+P'June</t>
+  </si>
+  <si>
+    <t>10BC English as a second language
+P'Jay</t>
+  </si>
+  <si>
+    <t>10C Physics
+P'Fluke</t>
+  </si>
+  <si>
+    <t>11 Mock BMAT</t>
+  </si>
+  <si>
+    <t>10D Chemistry
+P'Win</t>
+  </si>
+  <si>
+    <t>10D Mathematics
+P'Aong</t>
+  </si>
+  <si>
+    <t>10D Biology
+P'Namfon</t>
+  </si>
+  <si>
+    <t>10DE English A
+Mr.Josh</t>
+  </si>
+  <si>
+    <t>10D Physics
+P'Fluke</t>
+  </si>
+  <si>
+    <t>10E Biology
+P'Oho</t>
+  </si>
+  <si>
+    <t>10E Physics
+P'Cee</t>
+  </si>
+  <si>
+    <t>10E Chemistry
+P'Win</t>
+  </si>
+  <si>
+    <t>10E Mathematics
+P'Sun</t>
+  </si>
+  <si>
+    <t>10DE English as a second language
+P'Yuri</t>
+  </si>
+  <si>
+    <t>11A Physics
+P'Mikk</t>
+  </si>
+  <si>
+    <t>13 Academic Clinic</t>
+  </si>
+  <si>
+    <t>11 BMAT Part 3: Writing Task
+P'Ya</t>
+  </si>
+  <si>
+    <t>The Classical Language
+Classic Lang. Master</t>
+  </si>
+  <si>
+    <t>13 Mock A-Level</t>
+  </si>
+  <si>
+    <t>12Med BMAT
+P'Bell</t>
+  </si>
+  <si>
+    <t>12Med Portfolio and Research</t>
+  </si>
+  <si>
+    <t>12Med BMAT: Biology
+P'Ya</t>
+  </si>
+  <si>
+    <t>11 SAT Eng
+P'Umim</t>
+  </si>
+  <si>
+    <t>13 Psychology
+Dr.Ae</t>
+  </si>
+  <si>
+    <t>12 IELTS by Ms.Sam
+Ms.Sam</t>
+  </si>
+  <si>
+    <t>12Med Mathematics
+P'June</t>
+  </si>
+  <si>
+    <t>12Med-A Character Development</t>
+  </si>
+  <si>
+    <t>12Com,13Com Project</t>
+  </si>
+  <si>
+    <t>12Med BMAT: Mathematics
+P'Aom</t>
+  </si>
+  <si>
+    <t>12 Justice and Leadership
+Mr.Brian</t>
+  </si>
+  <si>
+    <t>12Com IELTS by P'Gib
+P'Gib</t>
+  </si>
+  <si>
+    <t>12Com SAT Eng
+P'Gib</t>
+  </si>
+  <si>
+    <t>12Com Mathematics
+P'Koong</t>
+  </si>
+  <si>
+    <t>13 Badminton
+Badminton Master</t>
+  </si>
+  <si>
+    <t>11 Badminton
+Badminton Master</t>
+  </si>
+  <si>
+    <t>10 Badminton
+Badminton Master</t>
+  </si>
+  <si>
+    <t>9 Badminton
+Badminton Master</t>
+  </si>
+  <si>
+    <t>12 Badminton
+Badminton Master</t>
+  </si>
+  <si>
+    <t>11 Basketball
+Basketball Master</t>
+  </si>
+  <si>
+    <t>10 Basketball
+Basketball Master</t>
+  </si>
+  <si>
+    <t>9 Basketball
+Basketball Master</t>
+  </si>
+  <si>
+    <t>12,13 Basketball
+Basketball Master</t>
+  </si>
+  <si>
+    <t>10 Dance
+P'Game</t>
   </si>
 </sst>
 </file>
@@ -531,9 +1054,11 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
@@ -691,7 +1216,7 @@
       <c r="R6" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
@@ -701,7 +1226,1995 @@
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="M6:O6"/>
-    <mergeCell ref="H1:I6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <cols>
+    <col min="1" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="105" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="105" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="105" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="105" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="105" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" ht="105" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <cols>
+    <col min="1" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="105" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="105" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="105" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="105" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="105" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" ht="105" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <cols>
+    <col min="1" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="105" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="105" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="105" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="105" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="105" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" ht="105" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <cols>
+    <col min="1" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="105" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="105" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" ht="105" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" ht="105" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" ht="105" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" ht="105" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="P6:Q6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <cols>
+    <col min="1" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="105" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="105" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="105" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="105" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="105" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" ht="105" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <cols>
+    <col min="1" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="105" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="105" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="105" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="105" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="105" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" ht="105" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <cols>
+    <col min="1" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="105" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="105" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="105" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="105" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="105" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" ht="105" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <cols>
+    <col min="1" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="105" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="105" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="105" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="105" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="105" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" ht="105" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J6:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <cols>
+    <col min="1" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="105" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="105" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="105" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="105" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="105" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" ht="105" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="J3:L3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <cols>
+    <col min="1" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="105" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="105" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" ht="105" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" ht="105" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" ht="105" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" ht="105" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="Q6:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -740,9 +3253,11 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
@@ -882,9 +3397,2062 @@
       <c r="R6" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H1:I6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <cols>
+    <col min="1" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="105" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="105" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" ht="105" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" ht="105" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" ht="105" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" ht="105" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="N6:Q6"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <cols>
+    <col min="1" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="105" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="105" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" ht="105" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" ht="105" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" ht="105" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" ht="105" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="S6:T6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <cols>
+    <col min="1" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="105" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="105" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" ht="105" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" ht="105" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" ht="105" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" ht="105" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M6:P6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <cols>
+    <col min="1" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="105" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="105" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" ht="105" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" ht="105" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" ht="105" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" ht="105" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <cols>
+    <col min="1" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="105" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="105" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" ht="105" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" ht="105" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" ht="105" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" ht="105" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="N4:O4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <cols>
+    <col min="1" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="105" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="105" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="105" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="105" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="105" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" ht="105" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <cols>
+    <col min="1" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="105" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="105" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="105" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="105" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="105" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" ht="105" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="J6:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <cols>
+    <col min="1" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="105" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="105" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="105" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="105" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="105" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" ht="105" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <cols>
+    <col min="1" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="105" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="105" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="105" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="105" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="105" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" ht="105" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="J6:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <cols>
+    <col min="1" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="105" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="105" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="105" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="105" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="105" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" ht="105" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -922,9 +5490,11 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
@@ -966,12 +5536,12 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -995,12 +5565,12 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1022,7 +5592,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1043,12 +5613,12 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1072,7 +5642,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1081,7 +5651,7 @@
       <c r="R6" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="M3:O3"/>
@@ -1090,7 +5660,2002 @@
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="M5:O5"/>
     <mergeCell ref="M6:O6"/>
-    <mergeCell ref="H1:I6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <cols>
+    <col min="1" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="105" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="105" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="105" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="105" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="105" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" ht="105" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <cols>
+    <col min="1" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="105" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="105" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="105" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="105" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="105" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" ht="105" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <cols>
+    <col min="1" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="105" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="105" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="105" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="105" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="105" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" ht="105" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M4:O4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <cols>
+    <col min="1" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="105" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="105" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="105" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="105" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="105" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" ht="105" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="K6:N6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <cols>
+    <col min="1" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="105" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="105" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" ht="105" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" ht="105" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" ht="105" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" ht="105" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M6:P6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <cols>
+    <col min="1" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="105" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="105" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" ht="105" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" ht="105" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" ht="105" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" ht="105" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <cols>
+    <col min="1" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="105" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="105" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" ht="105" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" ht="105" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" ht="105" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" ht="105" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:O6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <cols>
+    <col min="1" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="105" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="105" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" ht="105" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" ht="105" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" ht="105" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" ht="105" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="J6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="105" customHeight="1"/>
+  <cols>
+    <col min="1" max="18" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="105" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="105" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" ht="105" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" ht="105" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" ht="105" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" ht="105" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>

--- a/result_xlsx_files/teacher_time_table.xlsx
+++ b/result_xlsx_files/teacher_time_table.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="173">
   <si>
     <t>9.00-9.30</t>
   </si>
@@ -257,6 +257,10 @@
 Go Master</t>
   </si>
   <si>
+    <t>POSN Mathematics
+P'Aong</t>
+  </si>
+  <si>
     <t>9B English
 Mr.Jacob</t>
   </si>
@@ -311,14 +315,14 @@
 P'Amy</t>
   </si>
   <si>
+    <t>9 Chinese Intermediate
+P'Chai</t>
+  </si>
+  <si>
     <t>9D Mathematics
 P'Cee</t>
   </si>
   <si>
-    <t>9 Chinese Intermediate
-P'Chai</t>
-  </si>
-  <si>
     <t>9D GO
 Go Master</t>
   </si>
@@ -357,11 +361,32 @@
     <t>12NBS-A Character Development</t>
   </si>
   <si>
+    <t>12NBS-A Work Experience</t>
+  </si>
+  <si>
+    <t>12NBS-A Managing a Successful Business Project
+Mr.James</t>
+  </si>
+  <si>
+    <t>12NBS-A IELTS
+Mr.Marc</t>
+  </si>
+  <si>
+    <t>12NBS SAT Eng
+P'Umim</t>
+  </si>
+  <si>
+    <t>12NBS Semester 1 Units</t>
+  </si>
+  <si>
+    <t>12NBS Work Experience - Self Work</t>
+  </si>
+  <si>
     <t>12NBS-A Business Data and Numerical Skills
 P'Mint</t>
   </si>
   <si>
-    <t>12NBS-A Managing a Successful Business Project
+    <t>12NBS-A Business Project - Self work
 Mr.James</t>
   </si>
   <si>
@@ -369,28 +394,6 @@
 Mr.James</t>
   </si>
   <si>
-    <t>12NBS-A Business Data and Numerical Skills - Practicum
-P'Mint</t>
-  </si>
-  <si>
-    <t>12NBS-A IELTS
-Mr.Marc</t>
-  </si>
-  <si>
-    <t>12NBS SAT Eng
-P'Umim</t>
-  </si>
-  <si>
-    <t>12NBS Semester 1 Units</t>
-  </si>
-  <si>
-    <t>12NBS-A Business Project - Self work
-Mr.James</t>
-  </si>
-  <si>
-    <t>12NBS-A Work Experience</t>
-  </si>
-  <si>
     <t>12NBS-B Character Development</t>
   </si>
   <si>
@@ -401,10 +404,6 @@
 Mr.Marc</t>
   </si>
   <si>
-    <t>12NBS-B Business Data and Numerical Skills - Practicum
-P'Mint</t>
-  </si>
-  <si>
     <t>12NBS-B Managing a Successful Business Project
 P'Chua</t>
   </si>
@@ -420,33 +419,33 @@
     <t>13NBS Character Development</t>
   </si>
   <si>
+    <t>13 Business Strategy
+P'Mint</t>
+  </si>
+  <si>
+    <t>13NBS Unit 26 &amp; 33 OpsÂ MngmtÂ andÂ Mktg
+Mr.James</t>
+  </si>
+  <si>
     <t>13NBS Financial Management
 Ms.Shruti</t>
   </si>
   <si>
-    <t>13 Business Strategy
-P'Mint</t>
-  </si>
-  <si>
     <t>13NBS Financial Management - Practicum
 Ms.Shruti</t>
   </si>
   <si>
-    <t>13NBS Managing a Successful Business Project - Practicum
-Mr.James</t>
-  </si>
-  <si>
     <t>13NBS Organisational Behaviour</t>
+  </si>
+  <si>
+    <t>13Hum University Preparation / Activities
+P'Best</t>
   </si>
   <si>
     <t>13NBS IELTS
 Mr.Marc</t>
   </si>
   <si>
-    <t>13NBS Managing a Successful Business Project
-Mr.James</t>
-  </si>
-  <si>
     <t>12,13 Business Strategy</t>
   </si>
   <si>
@@ -468,21 +467,21 @@
     <t>10A Character Development</t>
   </si>
   <si>
+    <t>10A Chemistry
+P'Boom</t>
+  </si>
+  <si>
+    <t>10A Mathematics
+P'Korn</t>
+  </si>
+  <si>
+    <t>11 Academic Clinic</t>
+  </si>
+  <si>
     <t>10A English A
 Mr.Brian</t>
   </si>
   <si>
-    <t>10A Chemistry
-P'Boom</t>
-  </si>
-  <si>
-    <t>10A Mathematics
-P'Korn</t>
-  </si>
-  <si>
-    <t>11 Academic Clinic</t>
-  </si>
-  <si>
     <t>10 Academic Clinic</t>
   </si>
   <si>
@@ -493,8 +492,8 @@
 P'Namfon</t>
   </si>
   <si>
-    <t>10BC English A
-Mr.Aaron</t>
+    <t>POSN Chemistry
+P'Win</t>
   </si>
   <si>
     <t>11 Mock IGCSE</t>
@@ -515,11 +514,15 @@
 P'June</t>
   </si>
   <si>
+    <t>10C Physics
+P'Fluke</t>
+  </si>
+  <si>
     <t>10BC English as a second language
 P'Jay</t>
   </si>
   <si>
-    <t>10C Physics
+    <t>POSN Physics
 P'Fluke</t>
   </si>
   <si>
@@ -550,18 +553,21 @@
 P'Oho</t>
   </si>
   <si>
+    <t>10E Chemistry
+P'Win</t>
+  </si>
+  <si>
+    <t>10E Mathematics
+P'Sun</t>
+  </si>
+  <si>
+    <t>12 Mock A-Level</t>
+  </si>
+  <si>
     <t>10E Physics
 P'Cee</t>
   </si>
   <si>
-    <t>10E Chemistry
-P'Win</t>
-  </si>
-  <si>
-    <t>10E Mathematics
-P'Sun</t>
-  </si>
-  <si>
     <t>10DE English as a second language
 P'Yuri</t>
   </si>
@@ -591,46 +597,50 @@
     <t>12Med Portfolio and Research</t>
   </si>
   <si>
+    <t>11 SAT Eng
+P'Umim</t>
+  </si>
+  <si>
+    <t>13 Psychology
+Dr.Ae</t>
+  </si>
+  <si>
+    <t>12 IELTS by Ms.Sam
+Ms.Sam</t>
+  </si>
+  <si>
+    <t>12Med Mathematics
+P'June</t>
+  </si>
+  <si>
+    <t>12Med-A Character Development</t>
+  </si>
+  <si>
+    <t>12Com,13Com Project</t>
+  </si>
+  <si>
+    <t>12Med BMAT: Mathematics
+P'Aom</t>
+  </si>
+  <si>
+    <t>12 Justice and Leadership
+Mr.Brian</t>
+  </si>
+  <si>
+    <t>12Com SAT Eng
+P'Mook</t>
+  </si>
+  <si>
+    <t>12Com IELTS by P'Gib
+P'Gib</t>
+  </si>
+  <si>
+    <t>12Med BMAT Part 3: Writing Task
+P'Ya</t>
+  </si>
+  <si>
     <t>12Med BMAT: Biology
 P'Ya</t>
-  </si>
-  <si>
-    <t>11 SAT Eng
-P'Umim</t>
-  </si>
-  <si>
-    <t>13 Psychology
-Dr.Ae</t>
-  </si>
-  <si>
-    <t>12 IELTS by Ms.Sam
-Ms.Sam</t>
-  </si>
-  <si>
-    <t>12Med Mathematics
-P'June</t>
-  </si>
-  <si>
-    <t>12Med-A Character Development</t>
-  </si>
-  <si>
-    <t>12Com,13Com Project</t>
-  </si>
-  <si>
-    <t>12Med BMAT: Mathematics
-P'Aom</t>
-  </si>
-  <si>
-    <t>12 Justice and Leadership
-Mr.Brian</t>
-  </si>
-  <si>
-    <t>12Com IELTS by P'Gib
-P'Gib</t>
-  </si>
-  <si>
-    <t>12Com SAT Eng
-P'Gib</t>
   </si>
   <si>
     <t>12Com Mathematics
@@ -1845,16 +1855,14 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1862,24 +1870,17 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:19" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1900,7 +1901,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1914,11 +1915,11 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -1929,25 +1930,27 @@
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -1957,16 +1960,12 @@
         <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1977,18 +1976,15 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="13">
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="B4:C4"/>
@@ -1996,10 +1992,9 @@
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="L5:O5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="P6:Q6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2077,16 +2072,14 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2094,24 +2087,20 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -2143,7 +2132,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2170,7 +2159,9 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -2203,16 +2194,15 @@
       <c r="R6" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="D2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="D5:E5"/>
+    <mergeCell ref="L5:O5"/>
     <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2222,7 +2212,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2231,7 +2221,7 @@
     <col min="1" max="18" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="105" customHeight="1">
+    <row r="1" spans="1:20" ht="105" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2285,7 +2275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="105" customHeight="1">
+    <row r="2" spans="1:20" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -2306,46 +2296,49 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="105" customHeight="1">
+    <row r="3" spans="1:20" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="I3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" ht="105" customHeight="1">
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2356,17 +2349,17 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="105" customHeight="1">
+    <row r="5" spans="1:20" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -2379,11 +2372,11 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -2391,12 +2384,12 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="105" customHeight="1">
+    <row r="6" spans="1:20" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2419,13 +2412,13 @@
   <mergeCells count="12">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="L4:M4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="B6:C6"/>
@@ -2999,7 +2992,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3008,7 +3001,7 @@
     <col min="1" max="18" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="105" customHeight="1">
+    <row r="1" spans="1:21" ht="105" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3062,7 +3055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="105" customHeight="1">
+    <row r="2" spans="1:21" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -3072,32 +3065,30 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:20" ht="105" customHeight="1">
+    <row r="3" spans="1:21" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -3107,7 +3098,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -3115,16 +3106,18 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="105" customHeight="1">
+    <row r="4" spans="1:21" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -3133,7 +3126,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -3144,12 +3137,12 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:20" ht="105" customHeight="1">
+    <row r="5" spans="1:21" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -3162,21 +3155,21 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="N5" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="O5" s="1"/>
-      <c r="P5" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="1:20" ht="105" customHeight="1">
+    </row>
+    <row r="6" spans="1:21" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -3184,37 +3177,37 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="P6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
+      <c r="S6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="R3:S3"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="S6:T6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -3404,7 +3397,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3413,7 +3406,7 @@
     <col min="1" max="18" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="105" customHeight="1">
+    <row r="1" spans="1:19" ht="105" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3467,7 +3460,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="105" customHeight="1">
+    <row r="2" spans="1:19" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -3489,11 +3482,14 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:21" ht="105" customHeight="1">
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -3503,9 +3499,7 @@
         <v>121</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -3521,15 +3515,13 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="105" customHeight="1">
+    <row r="4" spans="1:19" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -3545,23 +3537,21 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="105" customHeight="1">
+    <row r="5" spans="1:19" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -3571,13 +3561,11 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="105" customHeight="1">
+    <row r="6" spans="1:19" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -3585,33 +3573,30 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="8">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="P6:Q6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -3620,7 +3605,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3629,7 +3614,7 @@
     <col min="1" max="18" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="105" customHeight="1">
+    <row r="1" spans="1:23" ht="105" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3683,7 +3668,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="105" customHeight="1">
+    <row r="2" spans="1:23" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -3713,59 +3698,58 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:21" ht="105" customHeight="1">
+    <row r="3" spans="1:23" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-    </row>
-    <row r="4" spans="1:21" ht="105" customHeight="1">
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>128</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -3773,9 +3757,8 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:21" ht="105" customHeight="1">
+    </row>
+    <row r="5" spans="1:23" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -3784,7 +3767,7 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -3800,11 +3783,14 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:21" ht="105" customHeight="1">
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -3812,58 +3798,57 @@
         <v>129</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>128</v>
       </c>
+      <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="Q6" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="R6" s="1"/>
-      <c r="S6" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
+      <c r="U6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="20">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="M3:P3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="I5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="U6:V6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -3942,11 +3927,11 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -3963,29 +3948,38 @@
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:19" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -3994,44 +3988,40 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -4039,12 +4029,12 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -4054,15 +4044,16 @@
       <c r="S6" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I5:L5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="J6:K6"/>
@@ -4075,7 +4066,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4084,7 +4075,7 @@
     <col min="1" max="18" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="105" customHeight="1">
+    <row r="1" spans="1:19" ht="105" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4138,14 +4129,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="105" customHeight="1">
+    <row r="2" spans="1:19" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -4155,7 +4146,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -4164,33 +4155,33 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:20" ht="105" customHeight="1">
+    <row r="3" spans="1:19" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="105" customHeight="1">
+    <row r="4" spans="1:19" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -4201,7 +4192,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -4215,16 +4206,16 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:20" ht="105" customHeight="1">
+    <row r="5" spans="1:19" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -4234,7 +4225,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -4243,55 +4234,52 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="1:20" ht="105" customHeight="1">
+    </row>
+    <row r="6" spans="1:19" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M6" s="1"/>
-      <c r="N6" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="D2:G2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="N3:O3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:G5"/>
-    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:G6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -4370,7 +4358,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -4406,7 +4394,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -4416,7 +4404,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4430,7 +4418,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -4579,7 +4567,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -4603,7 +4591,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -4649,7 +4637,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -4761,7 +4749,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -4769,7 +4757,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -4803,9 +4791,7 @@
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -4816,7 +4802,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -4838,7 +4824,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -4854,7 +4840,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4864,7 +4850,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -4876,10 +4862,9 @@
       <c r="R6" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B4:C4"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="B6:C6"/>
@@ -5140,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5154,7 +5139,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -5166,7 +5151,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5178,7 +5163,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -5199,9 +5184,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>157</v>
-      </c>
+      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
         <v>158</v>
@@ -5217,13 +5200,15 @@
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>158</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -5243,14 +5228,18 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -5262,14 +5251,16 @@
       <c r="R6" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="J6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5761,7 +5752,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -5771,7 +5762,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -5795,7 +5786,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -5819,7 +5810,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -5843,7 +5834,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -5967,7 +5958,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -5991,7 +5982,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -6015,7 +6006,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -6039,7 +6030,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -6184,7 +6175,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -6721,7 +6712,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6730,7 +6721,7 @@
     <col min="1" max="18" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="105" customHeight="1">
+    <row r="1" spans="1:21" ht="105" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -6784,7 +6775,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="105" customHeight="1">
+    <row r="2" spans="1:21" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -6810,7 +6801,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="105" customHeight="1">
+    <row r="3" spans="1:21" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -6834,19 +6825,22 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:22" ht="105" customHeight="1">
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -6859,7 +6853,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -6869,12 +6863,12 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="105" customHeight="1">
+    <row r="5" spans="1:21" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -6895,7 +6889,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:22" ht="105" customHeight="1">
+    <row r="6" spans="1:21" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -6907,7 +6901,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -6916,18 +6910,15 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -6937,6 +6928,7 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="I4:J4"/>
@@ -6945,7 +6937,6 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="G6:J6"/>
-    <mergeCell ref="O6:P6"/>
     <mergeCell ref="Q6:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7023,11 +7014,11 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -7035,7 +7026,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -7044,7 +7035,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -7055,26 +7046,26 @@
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -7087,13 +7078,13 @@
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -7101,12 +7092,12 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -7117,14 +7108,14 @@
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -7145,11 +7136,11 @@
         <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -7157,13 +7148,13 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -7267,24 +7258,22 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -7296,7 +7285,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -7308,7 +7297,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -7317,7 +7306,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -7328,15 +7317,15 @@
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -7354,7 +7343,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -7380,21 +7369,21 @@
         <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -7406,11 +7395,10 @@
       <c r="R6" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="16">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:M3"/>
@@ -7432,7 +7420,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7441,7 +7429,7 @@
     <col min="1" max="18" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="105" customHeight="1">
+    <row r="1" spans="1:21" ht="105" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -7495,16 +7483,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="105" customHeight="1">
+    <row r="2" spans="1:21" ht="105" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -7520,23 +7508,23 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="105" customHeight="1">
+    <row r="3" spans="1:21" ht="105" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -7545,32 +7533,32 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="105" customHeight="1">
+    <row r="4" spans="1:21" ht="105" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -7581,12 +7569,12 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:19" ht="105" customHeight="1">
+    <row r="5" spans="1:21" ht="105" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -7594,48 +7582,51 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" ht="105" customHeight="1">
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" ht="105" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -7651,7 +7642,7 @@
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L5:O5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="I6:J6"/>
